--- a/toshiken.xlsx
+++ b/toshiken.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miyazakishuhei/Desktop/graduation_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CE447-8D21-6041-9047-C79B39388119}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29738DE4-00E4-204D-8DE3-8AF146492E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="toshiken" sheetId="15" r:id="rId1"/>
@@ -12132,7 +12132,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="14"/>
